--- a/practise1.xlsx
+++ b/practise1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\explo\Documents\GitHub\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4643B5D-4823-4F00-94CC-94A8BA98D40B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28100CDF-5E69-497B-AD57-874B6E6D4DC8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{D947858C-76B8-47FC-B035-7E1FCAEB3764}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{D947858C-76B8-47FC-B035-7E1FCAEB3764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Lawyer</t>
   </si>
@@ -109,6 +110,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>E%</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -664,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B72E44D-4CF1-4779-9DDE-621668497BA8}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,4 +877,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C59AA0-B88C-474A-A729-84623A7EE7C2}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>B2*3</f>
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <f>$C$6*(B2/100)</f>
+        <v>87</v>
+      </c>
+      <c r="E2">
+        <f>(C2-D2)^2/D2</f>
+        <v>0.73563218390804597</v>
+      </c>
+      <c r="H2">
+        <f>200*0.15</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" ref="A3:A5" si="0">B3*3</f>
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="1">$C$6*(B3/100)</f>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="2">(C3-D3)^2/D3</f>
+        <v>2.3333333333333375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>2.6133333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1.1851851851851851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>AVERAGE(B2:B5)</f>
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E2:E5)</f>
+        <v>6.8674840357599019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>_xlfn.CHISQ.TEST(C2:C5,A2:A5)</f>
+        <v>7.6243615471086962E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>